--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8651,6 +8651,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BGM2</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>144823400000</v>
+      </c>
+      <c r="D329" t="n">
+        <v>144823400000</v>
+      </c>
+      <c r="E329" t="n">
+        <v>144823400000</v>
+      </c>
+      <c r="F329" t="n">
+        <v>144823400000</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BGM2</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>145105700000</v>
+      </c>
+      <c r="D330" t="n">
+        <v>145105700000</v>
+      </c>
+      <c r="E330" t="n">
+        <v>145105700000</v>
+      </c>
+      <c r="F330" t="n">
+        <v>145105700000</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BGM2</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>145384900000</v>
+      </c>
+      <c r="D331" t="n">
+        <v>145384900000</v>
+      </c>
+      <c r="E331" t="n">
+        <v>145384900000</v>
+      </c>
+      <c r="F331" t="n">
+        <v>145384900000</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -8723,6 +8723,31 @@
         <v>145384900000</v>
       </c>
       <c r="G331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BGM2</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>145758600000</v>
+      </c>
+      <c r="D332" t="n">
+        <v>145758600000</v>
+      </c>
+      <c r="E332" t="n">
+        <v>145758600000</v>
+      </c>
+      <c r="F332" t="n">
+        <v>145758600000</v>
+      </c>
+      <c r="G332" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8751,6 +8751,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BGM2</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>146899200000</v>
+      </c>
+      <c r="D333" t="n">
+        <v>146899200000</v>
+      </c>
+      <c r="E333" t="n">
+        <v>146899200000</v>
+      </c>
+      <c r="F333" t="n">
+        <v>146899200000</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BGM2</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>149059300000</v>
+      </c>
+      <c r="D334" t="n">
+        <v>149059300000</v>
+      </c>
+      <c r="E334" t="n">
+        <v>149059300000</v>
+      </c>
+      <c r="F334" t="n">
+        <v>149059300000</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BGM2</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>149342700000</v>
+      </c>
+      <c r="D335" t="n">
+        <v>149342700000</v>
+      </c>
+      <c r="E335" t="n">
+        <v>149342700000</v>
+      </c>
+      <c r="F335" t="n">
+        <v>149342700000</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bulgaria_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8112,6 +8112,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336">
+        <v>149823000000</v>
+      </c>
+      <c r="D336">
+        <v>149823000000</v>
+      </c>
+      <c r="E336">
+        <v>149823000000</v>
+      </c>
+      <c r="F336">
+        <v>149823000000</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
